--- a/T41_Board_Sales/T41_V12_Board_Sales_Inventory-063024.xlsx
+++ b/T41_Board_Sales/T41_V12_Board_Sales_Inventory-063024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_Board_Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840D6A1-30F6-41DE-9D65-3FF823C72E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A1C3D-6947-49D8-A4F0-3937EAB0840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{020ECB51-1794-4E41-9DCD-692A34B166F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Current</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -521,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DFAC12-CC68-43B2-BC37-28D493CB9A11}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -578,17 +581,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5">
         <v>1.18</v>
       </c>
       <c r="D7" s="6">
         <f>B7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -596,17 +599,17 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5">
         <v>0.32</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ref="D8:D20" si="0">B8*C8</f>
-        <v>30.080000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
+        <v>62.08</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -614,14 +617,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C9" s="5">
         <v>1.22</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>28.06</v>
+        <v>150.06</v>
       </c>
       <c r="F9" s="1">
         <v>75</v>
@@ -632,14 +635,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5">
         <v>0.85</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>15.299999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -810,7 +813,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D22" s="7">
         <f>SUM(D7:D20)</f>
-        <v>343.95000000000005</v>
+        <v>700.95</v>
       </c>
     </row>
   </sheetData>
